--- a/data-raw/data.xlsx
+++ b/data-raw/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>Team</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Greece</t>
   </si>
   <si>
-    <t>1994, 1995, 1996, 2000, 2001, 2002, 2005, 2007, 2009, 2011, 2012, 2024</t>
-  </si>
-  <si>
     <t>1996, 2000, 2002, 2007, 2009, 2011, 2024</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>2003, 2010</t>
   </si>
   <si>
-    <t>1994, 1995, 1997, 1999, 2009, 2010, 2012, 2013, 2015, 2017, 2022, 2023, 2024</t>
-  </si>
-  <si>
     <t>1997, 2012, 2013</t>
   </si>
   <si>
@@ -108,9 +102,6 @@
     <t>Fenerbahçe</t>
   </si>
   <si>
-    <t>2015, 2016, 2017, 2018, 2019, 2024</t>
-  </si>
-  <si>
     <t>Serbia</t>
   </si>
   <si>
@@ -163,6 +154,21 @@
   </si>
   <si>
     <t>Years_of_Titles_Won</t>
+  </si>
+  <si>
+    <t>1994, 1995, 1996, 2000, 2001, 2002, 2005, 2007, 2009, 2011, 2012, 2024, 2025</t>
+  </si>
+  <si>
+    <t>1994, 1995, 1997, 1999, 2009, 2010, 2012, 2013, 2015, 2017, 2022, 2023, 2024, 2025</t>
+  </si>
+  <si>
+    <t>2015, 2016, 2017, 2018, 2019, 2024, 2025</t>
+  </si>
+  <si>
+    <t>2017, 2025</t>
+  </si>
+  <si>
+    <t>2023, 2025</t>
   </si>
 </sst>
 </file>
@@ -500,14 +506,17 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -518,16 +527,16 @@
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="196.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -544,7 +553,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -578,24 +587,24 @@
         <v>12</v>
       </c>
       <c r="C4" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C5" s="1">
         <v>12</v>
@@ -604,15 +613,15 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -624,10 +633,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -638,24 +647,24 @@
         <v>12</v>
       </c>
       <c r="C7" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
@@ -664,10 +673,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -675,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1">
         <v>5</v>
@@ -684,38 +693,38 @@
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2017</v>
+        <v>47</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -724,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1">
         <v>1992</v>
@@ -732,10 +741,10 @@
     </row>
     <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -744,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F12" s="1">
         <v>1999</v>
@@ -752,10 +761,10 @@
     </row>
     <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1">
         <v>4</v>
@@ -764,30 +773,30 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="E14" s="1">
-        <v>2023</v>
+      <c r="E14" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
